--- a/Database Structure.xlsx
+++ b/Database Structure.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 3\Sem 6\Software Engineering\Project\CSinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 3\Sem 6\Software Engineering\Project\Soufi\CSinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEAB7E-076A-4350-8241-B49510BCC1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52386460-C584-4ED8-A2ED-635E05E69CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>Users</t>
   </si>
@@ -263,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -326,11 +333,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -345,10 +361,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,6 +428,1247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connector: Elbow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B11F73-75A7-4D70-9396-46916D5B63C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="880110" y="956310"/>
+          <a:ext cx="1112520" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D4BE55-DD35-4678-8B24-620CDB8AEA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1950720" y="1287780"/>
+          <a:ext cx="1097280" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ECD7A2-1B61-4FF5-8FB1-4B86F0E9B14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7673340" y="1501140"/>
+          <a:ext cx="967740" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2A50AE-4637-49F2-BF57-218D246C6B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8313420" y="1082040"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877F9761-C2D4-4352-B812-DBCF269F5841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1493520"/>
+          <a:ext cx="1424940" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7958E06-400F-430B-99F3-872871D9FF32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9730740" y="1493520"/>
+          <a:ext cx="15240" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EE2912-18F4-4645-8BC0-CA9E7EAA24AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2232660" y="944880"/>
+          <a:ext cx="7620" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8917DE-331C-4342-BAC1-FEF67B26080A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="1744980"/>
+          <a:ext cx="2674620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E1D680-F1CE-414C-A356-6E88B5E4141F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2057400" y="914400"/>
+          <a:ext cx="15240" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7AD2D7-07C6-4B0D-86A3-D6B917489511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2453640" y="937260"/>
+          <a:ext cx="0" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A9546F-A302-4F74-932E-7C0C1C323945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2453640" y="2453640"/>
+          <a:ext cx="2583180" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B7ED79-6632-49E6-BE05-A0AFF82E7F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2042160" y="3383280"/>
+          <a:ext cx="2537460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90943DA3-F1D0-4A06-B434-E01AC72A5021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8290560" y="1097280"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2369B64-BE22-40D9-BB1A-71418A9A6764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7993380" y="1120140"/>
+          <a:ext cx="0" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B72718-BCEF-4C97-8563-827AB5B2077C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7901940" y="1127760"/>
+          <a:ext cx="0" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F606B4B-64F7-4038-9F98-A8CBD2C40983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6583680" y="1417320"/>
+          <a:ext cx="1714500" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481A4C13-E600-4F9A-91DA-2BFFEE0393B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1402080"/>
+          <a:ext cx="0" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361398D5-3335-48D2-85CC-8DA575EEAE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7315200" y="1638300"/>
+          <a:ext cx="685800" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE894B30-CFE8-484D-BDF3-31E809C8EA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="1638300"/>
+          <a:ext cx="0" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17B1DFB-99BA-4F61-8D38-61BC3D92D9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6949440" y="2415540"/>
+          <a:ext cx="365760" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84353EC1-27E0-447D-A2B2-4B19C82FDD69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7551420" y="1927860"/>
+          <a:ext cx="373380" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908E3B8E-4EA0-471A-84AE-FA483F1AA086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7551420" y="1927860"/>
+          <a:ext cx="0" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B2E0D-9D94-469E-A2A9-60EAC074AFB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5379720" y="2918460"/>
+          <a:ext cx="2186940" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEE9A47-333E-40AB-8A06-ECE9E88450A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5372100" y="2918460"/>
+          <a:ext cx="7620" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C326AD7-06AB-4849-A9BE-FDA36B948476}">
   <dimension ref="B3:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,12 +1988,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="V4" t="s">
@@ -855,8 +2160,8 @@
       <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="H14" s="12" t="s">
         <v>49</v>
       </c>
@@ -919,8 +2224,8 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="H16" t="s">
         <v>65</v>
       </c>
@@ -990,10 +2295,10 @@
       <c r="R19" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="14"/>
+      <c r="W19" s="15"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="V20" s="1" t="s">
@@ -1032,4 +2337,635 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7864F-8938-48D3-A925-4E70C14E8825}">
+  <dimension ref="A3:Y21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="16" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="V3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="V4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="W5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="W6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="W8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="W9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="W10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="24"/>
+      <c r="W11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="W12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="W13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="U15" s="21"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="W17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="W18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="W19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="W20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database Structure.xlsx
+++ b/Database Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 3\Sem 6\Software Engineering\Project\Soufi\CSinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52386460-C584-4ED8-A2ED-635E05E69CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019871C1-DE79-43FB-81DA-8B3274EE41FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,12 +363,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -381,9 +375,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,7 +401,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C326AD7-06AB-4849-A9BE-FDA36B948476}">
   <dimension ref="B3:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,12 +1988,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="V4" t="s">
@@ -2295,10 +2295,10 @@
       <c r="R19" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="15" t="s">
+      <c r="V19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="15"/>
+      <c r="W19" s="28"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="V20" s="1" t="s">
@@ -2343,616 +2343,620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7864F-8938-48D3-A925-4E70C14E8825}">
   <dimension ref="A3:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" style="16" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="15" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="V3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="V3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="V4" s="16" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="V4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="31" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="W5" s="16" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="W5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="W6" s="16" t="s">
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="W6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="W8" s="16" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="W8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="31" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="W9" s="18" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="W9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="W10" s="19" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="W10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="19" t="s">
+      <c r="X10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="31" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="31" t="s">
+      <c r="O11" s="29"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="24"/>
-      <c r="W11" s="19" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="21"/>
+      <c r="W11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="19" t="s">
+      <c r="X11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="19" t="s">
+      <c r="Y11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23" t="s">
+      <c r="P12" s="21"/>
+      <c r="Q12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="W12" s="19" t="s">
+      <c r="S12" s="21"/>
+      <c r="W12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="X12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="31" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="W13" s="19" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="W13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="19" t="s">
+      <c r="X13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Y13" s="19" t="s">
+      <c r="Y13" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="U15" s="21"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="W17" s="22" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="W17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="22"/>
+      <c r="X17" s="31"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="31" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="W18" s="18" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="W18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="X18" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="W19" s="18" t="s">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="W19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X19" s="18" t="s">
+      <c r="X19" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="W20" s="18" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="W20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="X20" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B4:H4"/>
@@ -2960,10 +2964,6 @@
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Database Structure.xlsx
+++ b/Database Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 3\Sem 6\Software Engineering\Project\Soufi\CSinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\AUS Year 3\Sem 6\Software Engineering\Project\CSinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019871C1-DE79-43FB-81DA-8B3274EE41FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972AA9A-C0D3-415F-9B26-4750FFE3276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE1D5A48-27AF-4431-9435-49C924608034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>Users</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>SELECT * FROM Projects,AppliedTo WHERE Projects.CreatorID=myID AND Projects.ProjID=AppliedTo.ProjID</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1015,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1034,9 +1037,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2042160" y="3383280"/>
-          <a:ext cx="2537460" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2072640" y="3375660"/>
+          <a:ext cx="2598420" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1650,6 +1653,359 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9882E5C2-13D0-D47C-607C-451D69B53675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="1112520"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E17F1F-8774-489F-ACE2-2DA1097F1AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218420" y="1272540"/>
+          <a:ext cx="685800" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C20F62-89E6-2C4F-208B-39AB05F49F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10904220" y="723900"/>
+          <a:ext cx="7620" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951CF6BE-62F4-C31E-00A4-6A370F8E4FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5013960" y="708660"/>
+          <a:ext cx="5897880" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC5CC3B-5E74-3B99-4F94-B31EC5829DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013960" y="739140"/>
+          <a:ext cx="7620" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1E95-443D-7352-9444-D29F7CD15F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2537460" y="1127760"/>
+          <a:ext cx="2484120" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E569EA14-8A65-B4CC-FD25-4B5678B31F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2545080" y="944880"/>
+          <a:ext cx="0" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1970,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C326AD7-06AB-4849-A9BE-FDA36B948476}">
   <dimension ref="B3:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -2343,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7864F-8938-48D3-A925-4E70C14E8825}">
   <dimension ref="A3:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,7 +2709,7 @@
     <col min="2" max="2" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
@@ -2448,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>15</v>
@@ -2953,17 +3309,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
